--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_4_3.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_4_3.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_4_3.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_4_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91989.55041322313</v>
+        <v>-276834.4728682037</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8732945.182477079</v>
+        <v>6070845.789560974</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33139445.582195</v>
+        <v>30477346.18927891</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-3.382138251356698e-10</v>
+        <v>1483751.915244356</v>
       </c>
     </row>
     <row r="11">
@@ -7978,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7993,16 +7993,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8145,19 +8145,19 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8230,16 +8230,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8379,7 +8379,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8467,16 +8467,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8689,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8707,13 +8707,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8847,19 +8847,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -8868,7 +8868,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8926,10 +8926,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8947,10 +8947,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9084,10 +9084,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -9096,7 +9096,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -9105,7 +9105,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9415,16 +9415,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,10 +9558,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -9652,16 +9652,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9795,10 +9795,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -9889,16 +9889,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10126,16 +10126,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -10272,25 +10272,25 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10369,10 +10369,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10506,22 +10506,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -10585,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10600,16 +10600,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -10992,16 +10992,16 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11074,16 +11074,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11317,10 +11317,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -22570,10 +22570,10 @@
         <v>256.6898085504863</v>
       </c>
       <c r="J2" t="n">
-        <v>220.8760035225573</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K2" t="n">
-        <v>268.5096182748763</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L2" t="n">
         <v>287.6350262633844</v>
@@ -22585,16 +22585,16 @@
         <v>279.8839375878409</v>
       </c>
       <c r="O2" t="n">
-        <v>280.7198179344578</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P2" t="n">
-        <v>282.1042548214289</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q2" t="n">
-        <v>271.2129416468284</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R2" t="n">
-        <v>263.0143561332412</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S2" t="n">
         <v>236.785106778059</v>
@@ -22673,7 +22673,7 @@
         <v>170.7777643849463</v>
       </c>
       <c r="R3" t="n">
-        <v>177.728994836036</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S3" t="n">
         <v>195.63287444794</v>
@@ -22737,19 +22737,19 @@
         <v>164.5593050631107</v>
       </c>
       <c r="M4" t="n">
-        <v>169.4894564160782</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N4" t="n">
         <v>155.7763642475845</v>
       </c>
       <c r="O4" t="n">
-        <v>168.9169769112482</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P4" t="n">
-        <v>168.0281649399601</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q4" t="n">
-        <v>184.8361019879239</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R4" t="n">
         <v>211.6331360021768</v>
@@ -22807,13 +22807,13 @@
         <v>256.6898085504863</v>
       </c>
       <c r="J5" t="n">
-        <v>220.8760035225573</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K5" t="n">
-        <v>268.5096182748763</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L5" t="n">
-        <v>287.6350262633844</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M5" t="n">
         <v>281.0224045372727</v>
@@ -22822,16 +22822,16 @@
         <v>279.8839375878409</v>
       </c>
       <c r="O5" t="n">
-        <v>280.7198179344578</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P5" t="n">
-        <v>282.1042548214289</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q5" t="n">
-        <v>271.2129416468284</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R5" t="n">
-        <v>263.0143561332412</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S5" t="n">
         <v>236.785106778059</v>
@@ -22971,7 +22971,7 @@
         <v>157.3961749680531</v>
       </c>
       <c r="L7" t="n">
-        <v>164.5593050631107</v>
+        <v>59.27569846418345</v>
       </c>
       <c r="M7" t="n">
         <v>169.4894564160782</v>
@@ -23044,13 +23044,13 @@
         <v>256.6898085504863</v>
       </c>
       <c r="J8" t="n">
-        <v>220.8760035225573</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K8" t="n">
         <v>268.5096182748763</v>
       </c>
       <c r="L8" t="n">
-        <v>287.6350262633844</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M8" t="n">
         <v>281.0224045372727</v>
@@ -23059,16 +23059,16 @@
         <v>279.8839375878409</v>
       </c>
       <c r="O8" t="n">
-        <v>280.7198179344578</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P8" t="n">
-        <v>282.1042548214289</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q8" t="n">
-        <v>271.2129416468284</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R8" t="n">
-        <v>263.0143561332412</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S8" t="n">
         <v>236.785106778059</v>
@@ -23144,10 +23144,10 @@
         <v>163.4487770454829</v>
       </c>
       <c r="Q9" t="n">
-        <v>170.7777643849463</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R9" t="n">
-        <v>177.728994836036</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S9" t="n">
         <v>195.63287444794</v>
@@ -23202,28 +23202,28 @@
         <v>170.3394424699794</v>
       </c>
       <c r="J10" t="n">
-        <v>154.9344141560632</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K10" t="n">
-        <v>157.3961749680531</v>
+        <v>88.2262143767183</v>
       </c>
       <c r="L10" t="n">
-        <v>164.5593050631107</v>
+        <v>59.27569846418345</v>
       </c>
       <c r="M10" t="n">
-        <v>169.4894564160782</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N10" t="n">
-        <v>155.7763642475845</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O10" t="n">
-        <v>168.9169769112482</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P10" t="n">
-        <v>168.0281649399601</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q10" t="n">
-        <v>184.8361019879239</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R10" t="n">
         <v>211.6331360021768</v>
@@ -23281,10 +23281,10 @@
         <v>256.6898085504863</v>
       </c>
       <c r="J11" t="n">
-        <v>220.8760035225573</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K11" t="n">
-        <v>268.5096182748763</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L11" t="n">
         <v>287.6350262633844</v>
@@ -23299,13 +23299,13 @@
         <v>280.7198179344578</v>
       </c>
       <c r="P11" t="n">
-        <v>282.1042548214289</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q11" t="n">
-        <v>271.2129416468284</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R11" t="n">
-        <v>263.0143561332412</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S11" t="n">
         <v>236.785106778059</v>
@@ -23439,19 +23439,19 @@
         <v>170.3394424699794</v>
       </c>
       <c r="J13" t="n">
-        <v>154.9344141560632</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K13" t="n">
-        <v>157.3961749680531</v>
+        <v>88.2262143767183</v>
       </c>
       <c r="L13" t="n">
-        <v>164.5593050631107</v>
+        <v>59.27569846418345</v>
       </c>
       <c r="M13" t="n">
         <v>169.4894564160782</v>
       </c>
       <c r="N13" t="n">
-        <v>155.7763642475845</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O13" t="n">
         <v>168.9169769112482</v>
@@ -23460,7 +23460,7 @@
         <v>168.0281649399601</v>
       </c>
       <c r="Q13" t="n">
-        <v>184.8361019879239</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R13" t="n">
         <v>211.6331360021768</v>
@@ -23518,10 +23518,10 @@
         <v>256.6898085504863</v>
       </c>
       <c r="J14" t="n">
-        <v>220.8760035225573</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K14" t="n">
-        <v>268.5096182748763</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L14" t="n">
         <v>287.6350262633844</v>
@@ -23539,10 +23539,10 @@
         <v>282.1042548214289</v>
       </c>
       <c r="Q14" t="n">
-        <v>271.2129416468284</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R14" t="n">
-        <v>263.0143561332412</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S14" t="n">
         <v>236.785106778059</v>
@@ -23594,13 +23594,13 @@
         <v>127.8372169228968</v>
       </c>
       <c r="I15" t="n">
-        <v>121.4173036</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J15" t="n">
         <v>154.7419045333334</v>
       </c>
       <c r="K15" t="n">
-        <v>168.166555548718</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>169.0363433314465</v>
@@ -23676,10 +23676,10 @@
         <v>170.3394424699794</v>
       </c>
       <c r="J16" t="n">
-        <v>154.9344141560632</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K16" t="n">
-        <v>157.3961749680531</v>
+        <v>88.2262143767183</v>
       </c>
       <c r="L16" t="n">
         <v>164.5593050631107</v>
@@ -23688,7 +23688,7 @@
         <v>169.4894564160782</v>
       </c>
       <c r="N16" t="n">
-        <v>155.7763642475845</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O16" t="n">
         <v>168.9169769112482</v>
@@ -23697,7 +23697,7 @@
         <v>168.0281649399601</v>
       </c>
       <c r="Q16" t="n">
-        <v>184.8361019879239</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R16" t="n">
         <v>211.6331360021768</v>
@@ -23855,10 +23855,10 @@
         <v>163.4487770454829</v>
       </c>
       <c r="Q18" t="n">
-        <v>170.7777643849463</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R18" t="n">
-        <v>177.728994836036</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S18" t="n">
         <v>195.63287444794</v>
@@ -23992,10 +23992,10 @@
         <v>256.6898085504863</v>
       </c>
       <c r="J20" t="n">
-        <v>220.8760035225573</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K20" t="n">
-        <v>268.5096182748763</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L20" t="n">
         <v>287.6350262633844</v>
@@ -24007,16 +24007,16 @@
         <v>279.8839375878409</v>
       </c>
       <c r="O20" t="n">
-        <v>280.7198179344578</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P20" t="n">
-        <v>282.1042548214289</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q20" t="n">
-        <v>271.2129416468284</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R20" t="n">
-        <v>263.0143561332412</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S20" t="n">
         <v>236.785106778059</v>
@@ -24071,10 +24071,10 @@
         <v>121.4173036</v>
       </c>
       <c r="J21" t="n">
-        <v>154.7419045333334</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K21" t="n">
-        <v>168.166555548718</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>169.0363433314465</v>
@@ -24086,16 +24086,16 @@
         <v>160.2368887416667</v>
       </c>
       <c r="O21" t="n">
-        <v>173.9674182222222</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>163.4487770454829</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>170.7777643849463</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R21" t="n">
-        <v>177.728994836036</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S21" t="n">
         <v>195.63287444794</v>
@@ -24150,10 +24150,10 @@
         <v>170.3394424699794</v>
       </c>
       <c r="J22" t="n">
-        <v>154.9344141560632</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K22" t="n">
-        <v>157.3961749680531</v>
+        <v>88.2262143767183</v>
       </c>
       <c r="L22" t="n">
         <v>164.5593050631107</v>
@@ -24244,16 +24244,16 @@
         <v>279.8839375878409</v>
       </c>
       <c r="O23" t="n">
-        <v>280.7198179344578</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P23" t="n">
-        <v>282.1042548214289</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q23" t="n">
-        <v>271.2129416468284</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R23" t="n">
-        <v>263.0143561332412</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S23" t="n">
         <v>236.785106778059</v>
@@ -24308,13 +24308,13 @@
         <v>121.4173036</v>
       </c>
       <c r="J24" t="n">
-        <v>154.7419045333334</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K24" t="n">
         <v>168.166555548718</v>
       </c>
       <c r="L24" t="n">
-        <v>169.0363433314465</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>173.4035213848624</v>
@@ -24326,7 +24326,7 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P24" t="n">
-        <v>163.4487770454829</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>170.7777643849463</v>
@@ -24387,10 +24387,10 @@
         <v>170.3394424699794</v>
       </c>
       <c r="J25" t="n">
-        <v>154.9344141560632</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K25" t="n">
-        <v>157.3961749680531</v>
+        <v>88.2262143767183</v>
       </c>
       <c r="L25" t="n">
         <v>164.5593050631107</v>
@@ -24481,16 +24481,16 @@
         <v>279.8839375878409</v>
       </c>
       <c r="O26" t="n">
-        <v>280.7198179344578</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P26" t="n">
-        <v>282.1042548214289</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q26" t="n">
-        <v>271.2129416468284</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R26" t="n">
-        <v>263.0143561332412</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S26" t="n">
         <v>236.785106778059</v>
@@ -24624,28 +24624,28 @@
         <v>170.3394424699794</v>
       </c>
       <c r="J28" t="n">
-        <v>154.9344141560632</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K28" t="n">
-        <v>157.3961749680531</v>
+        <v>88.2262143767183</v>
       </c>
       <c r="L28" t="n">
-        <v>164.5593050631107</v>
+        <v>59.27569846418345</v>
       </c>
       <c r="M28" t="n">
-        <v>169.4894564160782</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N28" t="n">
-        <v>155.7763642475845</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O28" t="n">
-        <v>168.9169769112482</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P28" t="n">
-        <v>168.0281649399601</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q28" t="n">
-        <v>184.8361019879239</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R28" t="n">
         <v>211.6331360021768</v>
@@ -24703,13 +24703,13 @@
         <v>256.6898085504863</v>
       </c>
       <c r="J29" t="n">
-        <v>220.8760035225573</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K29" t="n">
         <v>268.5096182748763</v>
       </c>
       <c r="L29" t="n">
-        <v>287.6350262633844</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M29" t="n">
         <v>281.0224045372727</v>
@@ -24718,16 +24718,16 @@
         <v>279.8839375878409</v>
       </c>
       <c r="O29" t="n">
-        <v>280.7198179344578</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P29" t="n">
-        <v>282.1042548214289</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q29" t="n">
-        <v>271.2129416468284</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R29" t="n">
-        <v>263.0143561332412</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S29" t="n">
         <v>236.785106778059</v>
@@ -24803,7 +24803,7 @@
         <v>163.4487770454829</v>
       </c>
       <c r="Q30" t="n">
-        <v>170.7777643849463</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R30" t="n">
         <v>177.728994836036</v>
@@ -24864,25 +24864,25 @@
         <v>154.9344141560632</v>
       </c>
       <c r="K31" t="n">
-        <v>157.3961749680531</v>
+        <v>88.2262143767183</v>
       </c>
       <c r="L31" t="n">
-        <v>164.5593050631107</v>
+        <v>59.27569846418345</v>
       </c>
       <c r="M31" t="n">
         <v>169.4894564160782</v>
       </c>
       <c r="N31" t="n">
-        <v>155.7763642475845</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O31" t="n">
-        <v>168.9169769112482</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P31" t="n">
-        <v>168.0281649399601</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q31" t="n">
-        <v>184.8361019879239</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R31" t="n">
         <v>211.6331360021768</v>
@@ -24940,10 +24940,10 @@
         <v>256.6898085504863</v>
       </c>
       <c r="J32" t="n">
-        <v>220.8760035225573</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K32" t="n">
-        <v>268.5096182748763</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L32" t="n">
         <v>287.6350262633844</v>
@@ -24961,10 +24961,10 @@
         <v>282.1042548214289</v>
       </c>
       <c r="Q32" t="n">
-        <v>271.2129416468284</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R32" t="n">
-        <v>263.0143561332412</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S32" t="n">
         <v>236.785106778059</v>
@@ -25016,7 +25016,7 @@
         <v>127.8372169228968</v>
       </c>
       <c r="I33" t="n">
-        <v>121.4173036</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J33" t="n">
         <v>154.7419045333334</v>
@@ -25098,22 +25098,22 @@
         <v>170.3394424699794</v>
       </c>
       <c r="J34" t="n">
-        <v>154.9344141560632</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K34" t="n">
-        <v>157.3961749680531</v>
+        <v>88.2262143767183</v>
       </c>
       <c r="L34" t="n">
-        <v>164.5593050631107</v>
+        <v>59.27569846418345</v>
       </c>
       <c r="M34" t="n">
-        <v>169.4894564160782</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N34" t="n">
-        <v>155.7763642475845</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O34" t="n">
-        <v>168.9169769112482</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P34" t="n">
         <v>168.0281649399601</v>
@@ -25177,13 +25177,13 @@
         <v>256.6898085504863</v>
       </c>
       <c r="J35" t="n">
-        <v>220.8760035225573</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K35" t="n">
-        <v>268.5096182748763</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L35" t="n">
-        <v>287.6350262633844</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M35" t="n">
         <v>281.0224045372727</v>
@@ -25192,16 +25192,16 @@
         <v>279.8839375878409</v>
       </c>
       <c r="O35" t="n">
-        <v>280.7198179344578</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P35" t="n">
-        <v>282.1042548214289</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q35" t="n">
-        <v>271.2129416468284</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R35" t="n">
-        <v>263.0143561332412</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S35" t="n">
         <v>236.785106778059</v>
@@ -25256,7 +25256,7 @@
         <v>121.4173036</v>
       </c>
       <c r="J36" t="n">
-        <v>154.7419045333334</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K36" t="n">
         <v>168.166555548718</v>
@@ -25435,7 +25435,7 @@
         <v>282.1042548214289</v>
       </c>
       <c r="Q38" t="n">
-        <v>271.2129416468284</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R38" t="n">
         <v>263.0143561332412</v>
@@ -25584,16 +25584,16 @@
         <v>169.4894564160782</v>
       </c>
       <c r="N40" t="n">
-        <v>155.7763642475845</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O40" t="n">
-        <v>168.9169769112482</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P40" t="n">
-        <v>168.0281649399601</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q40" t="n">
-        <v>184.8361019879239</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R40" t="n">
         <v>211.6331360021768</v>
@@ -25666,16 +25666,16 @@
         <v>279.8839375878409</v>
       </c>
       <c r="O41" t="n">
-        <v>280.7198179344578</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P41" t="n">
-        <v>282.1042548214289</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q41" t="n">
-        <v>271.2129416468284</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R41" t="n">
-        <v>263.0143561332412</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S41" t="n">
         <v>236.785106778059</v>
@@ -25809,28 +25809,28 @@
         <v>170.3394424699794</v>
       </c>
       <c r="J43" t="n">
-        <v>154.9344141560632</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K43" t="n">
-        <v>157.3961749680531</v>
+        <v>88.2262143767183</v>
       </c>
       <c r="L43" t="n">
-        <v>164.5593050631107</v>
+        <v>59.27569846418345</v>
       </c>
       <c r="M43" t="n">
-        <v>169.4894564160782</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N43" t="n">
-        <v>155.7763642475845</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O43" t="n">
-        <v>168.9169769112482</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P43" t="n">
-        <v>168.0281649399601</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q43" t="n">
-        <v>184.8361019879239</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R43" t="n">
         <v>211.6331360021768</v>
@@ -25888,13 +25888,13 @@
         <v>256.6898085504863</v>
       </c>
       <c r="J44" t="n">
-        <v>220.8760035225573</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K44" t="n">
-        <v>268.5096182748763</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L44" t="n">
-        <v>287.6350262633844</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M44" t="n">
         <v>281.0224045372727</v>
@@ -25909,10 +25909,10 @@
         <v>282.1042548214289</v>
       </c>
       <c r="Q44" t="n">
-        <v>271.2129416468284</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R44" t="n">
-        <v>263.0143561332412</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S44" t="n">
         <v>236.785106778059</v>
@@ -25964,10 +25964,10 @@
         <v>127.8372169228968</v>
       </c>
       <c r="I45" t="n">
-        <v>121.4173036</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J45" t="n">
-        <v>154.7419045333334</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K45" t="n">
         <v>168.166555548718</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.924934960901737e-11</v>
+        <v>152120.8241253904</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-2.924934960901737e-11</v>
+        <v>177666.175313661</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-2.924934960901737e-11</v>
+        <v>184031.1368022604</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-2.924934960901737e-11</v>
+        <v>114984.2426785304</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-2.924934960901737e-11</v>
+        <v>94186.61652386171</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-2.924934960901737e-11</v>
+        <v>12465.17264915997</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-2.924934960901737e-11</v>
+        <v>195481.4975725012</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.924934960901737e-11</v>
+        <v>124829.7696237673</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-2.924934960901737e-11</v>
+        <v>117844.8112356514</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-2.924934960901737e-11</v>
+        <v>175954.8689565618</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-2.924934960901737e-11</v>
+        <v>93640.15997612335</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-2.924934960901737e-11</v>
+        <v>179330.3618077248</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-2.924934960901737e-11</v>
+        <v>34213.02907770146</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-2.924934960901737e-11</v>
+        <v>117844.8112356514</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-2.924934960901737e-11</v>
+        <v>115497.0913918966</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>6427.640456002415</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7507.021492126525</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>7775.963526856076</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4858.489127261845</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3979.716191149088</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>526.6974358800002</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>8259.781587570478</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5274.497308046506</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4979.358221224708</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>7434.712772812474</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3956.626477864368</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>7577.339231312316</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1445.620946945133</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>4979.358221224708</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>4880.158791206898</v>
       </c>
     </row>
     <row r="3">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>8570.187274669886</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>10009.36198950203</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>10367.95136914144</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>6477.985503015793</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>5306.288254865452</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>702.2632478400003</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>11013.04211676064</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>7032.663077395342</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>6639.14429496628</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>9912.950363749967</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>5275.501970485823</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>10103.11897508309</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1927.494595926844</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>6639.144294966278</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>6506.878388275865</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-55720.56372146339</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-55720.56372146339</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-55720.56372146339</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-22092.9637214634</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>-22092.9637214634</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-22092.9637214634</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>-22092.9637214634</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
     </row>
   </sheetData>
